--- a/modelCatalog/instances/Variables/ECON_output.xlsx
+++ b/modelCatalog/instances/Variables/ECON_output.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/Mint-ModelCatalog-Ontology/modelCatalog/instances/Variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgarijo\Documents\GitHub\Mint-ModelCatalog-Ontology\modelCatalog\instances\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EE5658-D05B-3044-BADB-6DDCD697D7A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{4A5B9A6F-02F2-0D4E-AFFC-C3D38830191C}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27636" windowHeight="16536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -489,16 +488,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A19EE09-9A90-0348-A5B2-AF138FC5D36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,10 +514,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -527,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -548,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -569,7 +574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -590,7 +595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -611,7 +616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
